--- a/verified_emails.xlsx
+++ b/verified_emails.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\austria-production-emails\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
   <si>
     <t>Email</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>help@reelartsmedia.com</t>
+  </si>
+  <si>
+    <t>……..</t>
   </si>
 </sst>
 </file>
@@ -519,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,6 +1068,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/verified_emails.xlsx
+++ b/verified_emails.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
   <si>
     <t>Email</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>help@reelartsmedia.com</t>
-  </si>
-  <si>
-    <t>……..</t>
   </si>
 </sst>
 </file>
@@ -522,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
@@ -1068,11 +1065,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
